--- a/medicine/Pharmacie/Candace_Pert/Candace_Pert.xlsx
+++ b/medicine/Pharmacie/Candace_Pert/Candace_Pert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Candace Beebe Pert, née le 26 juin 1946 à New York et morte le 12 septembre 2013 à Potomac dans le Maryland (à 67 ans), est une pharmacologiste américaine, connue pour ses études sur le rôle des neuropeptides, messagers chimiques des sentiments et des pensées à travers le corps humain, qualifiés de molécules de l'émotion[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Candace Beebe Pert, née le 26 juin 1946 à New York et morte le 12 septembre 2013 à Potomac dans le Maryland (à 67 ans), est une pharmacologiste américaine, connue pour ses études sur le rôle des neuropeptides, messagers chimiques des sentiments et des pensées à travers le corps humain, qualifiés de molécules de l'émotion.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Molecules Of Emotion: The Science Between Mind-Body Medicine Scribner (1999),  (ISBN 0-684-84634-9)
 Everything You Need to Know to Feel Go(o)d, with Nancy Marriott,  Hay House, Inc. (2006),  (ISBN 1-4019-1059-9)</t>
